--- a/Data Dokter.xlsx
+++ b/Data Dokter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\MATERI\Pemrogaman WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Smester 4\tryit\kelompok34\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="83">
-  <si>
-    <t>Nama Dokter</t>
-  </si>
-  <si>
-    <t>Hari</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="82">
   <si>
     <t>JIWA</t>
   </si>
@@ -95,132 +89,21 @@
     <t>PENYAKIT DALAM</t>
   </si>
   <si>
-    <t>Dr. Albert Dentsy Sp.KJ.</t>
-  </si>
-  <si>
-    <t>Dr. Fahriz Muhammad, Sp.JP.</t>
-  </si>
-  <si>
-    <t>Dr. Zara Fatimah, Sp.PD.</t>
-  </si>
-  <si>
     <t>Dr. Via Putri</t>
   </si>
   <si>
     <t>Dr. Elis Saputri</t>
   </si>
   <si>
-    <t>Dr. Yunita Ayu, Sp.PK.MMRS.</t>
-  </si>
-  <si>
-    <t>Dr. Ananda Putra, Sp.Rad.</t>
-  </si>
-  <si>
-    <t>Dr. Jumadi, Sp.Rad.</t>
-  </si>
-  <si>
-    <t>Dr. Bagong, Sp.PA.</t>
-  </si>
-  <si>
-    <t>Dr. Santi Setiawati, Sp.PK.</t>
-  </si>
-  <si>
-    <t>Dr. Sebastian Putra, Sp.A.</t>
-  </si>
-  <si>
-    <t>Dr. Maria Dwi Putri, MARS.</t>
-  </si>
-  <si>
-    <t>Dr. Maria Tri Wijaya, Sp.A.</t>
-  </si>
-  <si>
-    <t>Dr. Tini Sandra Wibawati, Sp.A.</t>
-  </si>
-  <si>
-    <t>Dr. Andika Reza, Sp.A.</t>
-  </si>
-  <si>
-    <t>Dr. Fahmi Firdaus, Sp.A.</t>
-  </si>
-  <si>
-    <t>Dr. Rita Rahayu, Sp.M.</t>
-  </si>
-  <si>
-    <t>Dr. Avi Lety Kawilarang, Sp.M.</t>
-  </si>
-  <si>
-    <t>Dr. Diana Rosidah, Sp.M.</t>
-  </si>
-  <si>
     <t>Drg. Endang Mawardi</t>
   </si>
   <si>
     <t>Drg. Sebastian Putra</t>
   </si>
   <si>
-    <t>Drg. Fatimah Indah Putri, Sp.Ort.</t>
-  </si>
-  <si>
-    <t>Drg. Jamilah, Sp.Ort.</t>
-  </si>
-  <si>
     <t>Dr. Eva Yulieta Prima</t>
   </si>
   <si>
-    <t>Dr. Hermawan, Sp.P.</t>
-  </si>
-  <si>
-    <t>Dr. Rinawati, Sp.P.</t>
-  </si>
-  <si>
-    <t>Dr. Bram Alamsyah, Sp.KK.</t>
-  </si>
-  <si>
-    <t>Dr. Taufik Petra, Sp.RM.</t>
-  </si>
-  <si>
-    <t>Dr. Tutik Wulandari, Sp.OT.</t>
-  </si>
-  <si>
-    <t>Dr. Wahyu Hermawan, Sp.BO.</t>
-  </si>
-  <si>
-    <t>Dr. Anita Renokasih, Sp.OT.</t>
-  </si>
-  <si>
-    <t>Dr. Citra Safitri, Sp.U.</t>
-  </si>
-  <si>
-    <t>Dr. Selfiana Fatimah, Sp.U.</t>
-  </si>
-  <si>
-    <t>Dr. Mulyanto, Sp.B.</t>
-  </si>
-  <si>
-    <t>Dr. Mulyanti, Sp.B.</t>
-  </si>
-  <si>
-    <t>Dr. Roy Hanafi, Sp.S.</t>
-  </si>
-  <si>
-    <t>Dr. Pandu Dwi Septian, Sp.S.</t>
-  </si>
-  <si>
-    <t>Dr. Latifah, Sp.S.</t>
-  </si>
-  <si>
-    <t>Dr. Nabila Dwi Rahayu, Sp.PD.</t>
-  </si>
-  <si>
-    <t>Dr. Zain Mulyadi, Sp.PD.</t>
-  </si>
-  <si>
-    <t>Dr. Marjuki Setiawan, Sp.PD.</t>
-  </si>
-  <si>
-    <t>Dr. Khoiruniyah, Sp.PD.</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -239,9 +122,6 @@
     <t>Kamis</t>
   </si>
   <si>
-    <t>Jum'at</t>
-  </si>
-  <si>
     <t>Sabtu</t>
   </si>
   <si>
@@ -273,12 +153,129 @@
   </si>
   <si>
     <t>14.45</t>
+  </si>
+  <si>
+    <t>Jumat</t>
+  </si>
+  <si>
+    <t>Dokter</t>
+  </si>
+  <si>
+    <t>Dr. Albert Dentsy  Sp.KJ.</t>
+  </si>
+  <si>
+    <t>Dr. Fahriz Muhammad  Sp.JP.</t>
+  </si>
+  <si>
+    <t>Dr. Zara Fatimah  Sp.PD.</t>
+  </si>
+  <si>
+    <t>Dr. Ananda Putra  Sp.Rad.</t>
+  </si>
+  <si>
+    <t>Dr. Jumadi  Sp.Rad.</t>
+  </si>
+  <si>
+    <t>Dr. Bagong  Sp.PA.</t>
+  </si>
+  <si>
+    <t>Dr. Santi Setiawati  Sp.PK.</t>
+  </si>
+  <si>
+    <t>Dr. Yunita Ayu  Sp.PK.MMRS.</t>
+  </si>
+  <si>
+    <t>Dr. Maria Dwi Putri  MARS.</t>
+  </si>
+  <si>
+    <t>Dr. Sebastian Putra  Sp.A.</t>
+  </si>
+  <si>
+    <t>Dr. Maria Tri Wijaya  Sp.A.</t>
+  </si>
+  <si>
+    <t>Dr. Tini Sandra Wibawati  Sp.A.</t>
+  </si>
+  <si>
+    <t>Dr. Andika Reza  Sp.A.</t>
+  </si>
+  <si>
+    <t>Dr. Fahmi Firdaus  Sp.A.</t>
+  </si>
+  <si>
+    <t>Dr. Avi Lety Kawilarang  Sp.M.</t>
+  </si>
+  <si>
+    <t>Dr. Rita Rahayu  Sp.M.</t>
+  </si>
+  <si>
+    <t>Dr. Diana Rosidah  Sp.M.</t>
+  </si>
+  <si>
+    <t>Drg. Fatimah Indah Putri  Sp.Ort.</t>
+  </si>
+  <si>
+    <t>Drg. Jamilah  Sp.Ort.</t>
+  </si>
+  <si>
+    <t>Dr. Hermawan  Sp.P.</t>
+  </si>
+  <si>
+    <t>Dr. Rinawati  Sp.P.</t>
+  </si>
+  <si>
+    <t>Dr. Bram Alamsyah  Sp.KK.</t>
+  </si>
+  <si>
+    <t>Dr. Taufik Petra  Sp.RM.</t>
+  </si>
+  <si>
+    <t>Dr. Wahyu Hermawan  Sp.BO.</t>
+  </si>
+  <si>
+    <t>Dr. Tutik Wulandari  Sp.OT.</t>
+  </si>
+  <si>
+    <t>Dr. Anita Renokasih  Sp.OT.</t>
+  </si>
+  <si>
+    <t>Dr. Citra Safitri  Sp.U.</t>
+  </si>
+  <si>
+    <t>Dr. Selfiana Fatimah  Sp.U.</t>
+  </si>
+  <si>
+    <t>Dr. Mulyanto  Sp.B.</t>
+  </si>
+  <si>
+    <t>Dr. Mulyanti  Sp.B.</t>
+  </si>
+  <si>
+    <t>Dr. Roy Hanafi  Sp.S.</t>
+  </si>
+  <si>
+    <t>Dr. Pandu Dwi Septian  Sp.S.</t>
+  </si>
+  <si>
+    <t>Dr. Latifah  Sp.S.</t>
+  </si>
+  <si>
+    <t>Dr. Nabila Dwi Rahayu  Sp.PD.</t>
+  </si>
+  <si>
+    <t>Dr. Zain Mulyadi  Sp.PD.</t>
+  </si>
+  <si>
+    <t>Dr. Marjuki Setiawan  Sp.PD.</t>
+  </si>
+  <si>
+    <t>Dr. Khoiruniyah  Sp.PD.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -409,15 +406,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -430,43 +436,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -477,68 +446,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -548,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -571,13 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,31 +498,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,1275 +789,1262 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>72</v>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>74</v>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,12 +2055,6 @@
       <c r="E45" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
